--- a/data/pca/factorExposure/factorExposure_2015-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02035041953802248</v>
+        <v>0.01174784352456947</v>
       </c>
       <c r="C2">
-        <v>0.02115596733931076</v>
+        <v>-0.05271977496570617</v>
       </c>
       <c r="D2">
-        <v>0.1052335258045135</v>
+        <v>0.1272342069818218</v>
       </c>
       <c r="E2">
-        <v>0.01564842903958464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02356152822033867</v>
+      </c>
+      <c r="F2">
+        <v>0.03454000795221707</v>
+      </c>
+      <c r="G2">
+        <v>-0.1192852700957803</v>
+      </c>
+      <c r="H2">
+        <v>0.09044063138060114</v>
+      </c>
+      <c r="I2">
+        <v>-0.08581102270684825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04307861585185104</v>
+        <v>0.01808588039356145</v>
       </c>
       <c r="C4">
-        <v>0.07048237564803642</v>
+        <v>-0.1061432427849654</v>
       </c>
       <c r="D4">
-        <v>0.1190198267844641</v>
+        <v>0.1308607325832375</v>
       </c>
       <c r="E4">
-        <v>0.09297511124480967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01316393891084702</v>
+      </c>
+      <c r="F4">
+        <v>0.09206561811126708</v>
+      </c>
+      <c r="G4">
+        <v>-0.001641936492644831</v>
+      </c>
+      <c r="H4">
+        <v>0.04937498848745302</v>
+      </c>
+      <c r="I4">
+        <v>0.07656799238142699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02127221370078375</v>
+        <v>0.02826452726000188</v>
       </c>
       <c r="C6">
-        <v>0.01046968153929983</v>
+        <v>-0.03512087943584008</v>
       </c>
       <c r="D6">
-        <v>0.136701333682744</v>
+        <v>0.1227647255836096</v>
       </c>
       <c r="E6">
-        <v>0.04931923120227454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06304602834833094</v>
+      </c>
+      <c r="F6">
+        <v>0.04600715243336603</v>
+      </c>
+      <c r="G6">
+        <v>0.01255142723768464</v>
+      </c>
+      <c r="H6">
+        <v>0.04278822710740288</v>
+      </c>
+      <c r="I6">
+        <v>0.02654204719186141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002363448511586271</v>
+        <v>0.008562490789297796</v>
       </c>
       <c r="C7">
-        <v>0.02255344096800959</v>
+        <v>-0.03809968710912964</v>
       </c>
       <c r="D7">
-        <v>0.109308527138429</v>
+        <v>0.09490524964812524</v>
       </c>
       <c r="E7">
-        <v>0.01274346177925759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05587512252801977</v>
+      </c>
+      <c r="F7">
+        <v>0.009263737670045841</v>
+      </c>
+      <c r="G7">
+        <v>0.0170669428093407</v>
+      </c>
+      <c r="H7">
+        <v>0.07603193536252816</v>
+      </c>
+      <c r="I7">
+        <v>0.01156131872993766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002355013551011645</v>
+        <v>-0.008533197975167311</v>
       </c>
       <c r="C8">
-        <v>0.02627373051479877</v>
+        <v>-0.03641771185457966</v>
       </c>
       <c r="D8">
-        <v>0.07898210581468422</v>
+        <v>0.07413080769886628</v>
       </c>
       <c r="E8">
-        <v>0.0287251420220043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03888892142901627</v>
+      </c>
+      <c r="F8">
+        <v>0.04994969822942778</v>
+      </c>
+      <c r="G8">
+        <v>-0.06029144620749498</v>
+      </c>
+      <c r="H8">
+        <v>0.01469870043177169</v>
+      </c>
+      <c r="I8">
+        <v>-0.008939584479773336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03518409472162819</v>
+        <v>0.0131612479074454</v>
       </c>
       <c r="C9">
-        <v>0.05973738033971171</v>
+        <v>-0.08735443653127371</v>
       </c>
       <c r="D9">
-        <v>0.1216899617982526</v>
+        <v>0.1124801049402356</v>
       </c>
       <c r="E9">
-        <v>0.0771346503371774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01410542425023989</v>
+      </c>
+      <c r="F9">
+        <v>0.06121480647909417</v>
+      </c>
+      <c r="G9">
+        <v>0.01915763403283999</v>
+      </c>
+      <c r="H9">
+        <v>0.05860130948630994</v>
+      </c>
+      <c r="I9">
+        <v>0.04410966089291879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1772841944672443</v>
+        <v>0.2421181419388311</v>
       </c>
       <c r="C10">
-        <v>-0.1672098107033182</v>
+        <v>0.08862989667263189</v>
       </c>
       <c r="D10">
-        <v>-0.005009626596688591</v>
+        <v>-0.005722663167322929</v>
       </c>
       <c r="E10">
-        <v>0.04360346488756447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01037056039330764</v>
+      </c>
+      <c r="F10">
+        <v>0.04216506944276013</v>
+      </c>
+      <c r="G10">
+        <v>0.000317161858195688</v>
+      </c>
+      <c r="H10">
+        <v>-0.03524317941901695</v>
+      </c>
+      <c r="I10">
+        <v>-0.06764334254229608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01935862413728859</v>
+        <v>0.009347813650316464</v>
       </c>
       <c r="C11">
-        <v>0.04171289843516438</v>
+        <v>-0.05764342473789871</v>
       </c>
       <c r="D11">
-        <v>0.04594370363645587</v>
+        <v>0.04088436859586717</v>
       </c>
       <c r="E11">
-        <v>-0.01539581391935721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02026861760070531</v>
+      </c>
+      <c r="F11">
+        <v>-0.01469783733701132</v>
+      </c>
+      <c r="G11">
+        <v>0.01373861491044667</v>
+      </c>
+      <c r="H11">
+        <v>0.0485254052878419</v>
+      </c>
+      <c r="I11">
+        <v>0.06442385375861573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01925301350013598</v>
+        <v>0.009595911650667975</v>
       </c>
       <c r="C12">
-        <v>0.04120321444866201</v>
+        <v>-0.05060348256356145</v>
       </c>
       <c r="D12">
-        <v>0.06042149076619896</v>
+        <v>0.04544979231385185</v>
       </c>
       <c r="E12">
-        <v>-0.003289877844091794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01584098415342969</v>
+      </c>
+      <c r="F12">
+        <v>-0.01704438659284553</v>
+      </c>
+      <c r="G12">
+        <v>0.03261318923162033</v>
+      </c>
+      <c r="H12">
+        <v>0.06560355991979352</v>
+      </c>
+      <c r="I12">
+        <v>0.03814129689487943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.00414344633949078</v>
+        <v>-0.002623528887216141</v>
       </c>
       <c r="C13">
-        <v>0.02196750138407655</v>
+        <v>-0.04819610757860236</v>
       </c>
       <c r="D13">
-        <v>0.1349851645221039</v>
+        <v>0.1461007667826953</v>
       </c>
       <c r="E13">
-        <v>0.04503542478774172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04170280722924143</v>
+      </c>
+      <c r="F13">
+        <v>0.03467680107453677</v>
+      </c>
+      <c r="G13">
+        <v>-0.01466146437955755</v>
+      </c>
+      <c r="H13">
+        <v>0.07478657625450034</v>
+      </c>
+      <c r="I13">
+        <v>-0.0899188391342815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005497196903015065</v>
+        <v>0.001663227470136057</v>
       </c>
       <c r="C14">
-        <v>0.01549167301850042</v>
+        <v>-0.03116661661870377</v>
       </c>
       <c r="D14">
-        <v>0.0917832180752491</v>
+        <v>0.09796733807177765</v>
       </c>
       <c r="E14">
-        <v>0.01831170175907487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05227724361276188</v>
+      </c>
+      <c r="F14">
+        <v>0.03521004911192137</v>
+      </c>
+      <c r="G14">
+        <v>-0.0009030309332151112</v>
+      </c>
+      <c r="H14">
+        <v>0.1328849384474869</v>
+      </c>
+      <c r="I14">
+        <v>0.00278160968087175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.003031987566253594</v>
+        <v>-0.002718156062483654</v>
       </c>
       <c r="C15">
-        <v>0.01064280773251893</v>
+        <v>-0.0277753718079229</v>
       </c>
       <c r="D15">
-        <v>0.03311318284970156</v>
+        <v>0.06085251873070857</v>
       </c>
       <c r="E15">
-        <v>-0.0008117390837503568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01237071313744942</v>
+      </c>
+      <c r="F15">
+        <v>0.007420407240117487</v>
+      </c>
+      <c r="G15">
+        <v>-0.01324473745598552</v>
+      </c>
+      <c r="H15">
+        <v>0.04209311708670044</v>
+      </c>
+      <c r="I15">
+        <v>0.02363494870478491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01822440292372712</v>
+        <v>0.009039277844649496</v>
       </c>
       <c r="C16">
-        <v>0.03715685352957394</v>
+        <v>-0.05057282804728907</v>
       </c>
       <c r="D16">
-        <v>0.05391084626925324</v>
+        <v>0.04379195862712897</v>
       </c>
       <c r="E16">
-        <v>-0.004688087775893877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02270271399478982</v>
+      </c>
+      <c r="F16">
+        <v>-0.008898730890474098</v>
+      </c>
+      <c r="G16">
+        <v>0.02466450166527718</v>
+      </c>
+      <c r="H16">
+        <v>0.04570537665086735</v>
+      </c>
+      <c r="I16">
+        <v>0.06045532747234624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.003231963031770026</v>
+        <v>-0.0003766116155436516</v>
       </c>
       <c r="C19">
-        <v>0.01805056932975021</v>
+        <v>-0.01707093512790412</v>
       </c>
       <c r="D19">
-        <v>0.0945523066345464</v>
+        <v>0.06092355086943801</v>
       </c>
       <c r="E19">
-        <v>0.04876356799504183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01085581445251126</v>
+      </c>
+      <c r="F19">
+        <v>0.01616961373775594</v>
+      </c>
+      <c r="G19">
+        <v>-0.01152442375125088</v>
+      </c>
+      <c r="H19">
+        <v>0.05584120601354898</v>
+      </c>
+      <c r="I19">
+        <v>-0.03720793982875086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002775833869616272</v>
+        <v>0.004695313338750019</v>
       </c>
       <c r="C20">
-        <v>0.02450845676343702</v>
+        <v>-0.04205127072646576</v>
       </c>
       <c r="D20">
-        <v>0.07893934634326488</v>
+        <v>0.08750773547529893</v>
       </c>
       <c r="E20">
-        <v>0.03676458832449873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02481330466161359</v>
+      </c>
+      <c r="F20">
+        <v>0.02639178500812325</v>
+      </c>
+      <c r="G20">
+        <v>0.01509096854489352</v>
+      </c>
+      <c r="H20">
+        <v>0.05509020254634058</v>
+      </c>
+      <c r="I20">
+        <v>0.04606833248683581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.006069403396502638</v>
+        <v>0.003583725457199823</v>
       </c>
       <c r="C21">
-        <v>0.02585584157528102</v>
+        <v>-0.04541339159027964</v>
       </c>
       <c r="D21">
-        <v>0.1524012576900401</v>
+        <v>0.1287418644872482</v>
       </c>
       <c r="E21">
-        <v>0.09066752332262179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03153392418795195</v>
+      </c>
+      <c r="F21">
+        <v>0.09863203940547741</v>
+      </c>
+      <c r="G21">
+        <v>-0.01426196096088653</v>
+      </c>
+      <c r="H21">
+        <v>0.1962390868262755</v>
+      </c>
+      <c r="I21">
+        <v>-0.1418492027186491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0005938742801135159</v>
+        <v>-0.01401383530162757</v>
       </c>
       <c r="C22">
-        <v>0.06331772366798769</v>
+        <v>-0.08932978160181727</v>
       </c>
       <c r="D22">
-        <v>0.2586707468598444</v>
+        <v>0.2607954926392902</v>
       </c>
       <c r="E22">
-        <v>0.00656089009368468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06390674325085551</v>
+      </c>
+      <c r="F22">
+        <v>0.009128269861553663</v>
+      </c>
+      <c r="G22">
+        <v>-0.4024770781927085</v>
+      </c>
+      <c r="H22">
+        <v>-0.3788143233642051</v>
+      </c>
+      <c r="I22">
+        <v>0.05746694067087097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0003049291734112506</v>
+        <v>-0.01079328234349664</v>
       </c>
       <c r="C23">
-        <v>0.06380024551202974</v>
+        <v>-0.09106647617232305</v>
       </c>
       <c r="D23">
-        <v>0.258165796050513</v>
+        <v>0.263510566129343</v>
       </c>
       <c r="E23">
-        <v>0.006800835773049313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05910938725192001</v>
+      </c>
+      <c r="F23">
+        <v>0.01235680839495379</v>
+      </c>
+      <c r="G23">
+        <v>-0.3901709275462229</v>
+      </c>
+      <c r="H23">
+        <v>-0.3639723476517778</v>
+      </c>
+      <c r="I23">
+        <v>0.0480658162188272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0235895071643725</v>
+        <v>0.00940987455180356</v>
       </c>
       <c r="C24">
-        <v>0.05714899639947132</v>
+        <v>-0.06715661600532039</v>
       </c>
       <c r="D24">
-        <v>0.06264468377534549</v>
+        <v>0.04665766754244238</v>
       </c>
       <c r="E24">
-        <v>-0.001616715329755522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02941305942970115</v>
+      </c>
+      <c r="F24">
+        <v>-0.004748035116857712</v>
+      </c>
+      <c r="G24">
+        <v>0.0139470878976483</v>
+      </c>
+      <c r="H24">
+        <v>0.07203946885851746</v>
+      </c>
+      <c r="I24">
+        <v>0.05587353474540616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02465537652742689</v>
+        <v>0.01345625927308365</v>
       </c>
       <c r="C25">
-        <v>0.04857685726232275</v>
+        <v>-0.06144178655799183</v>
       </c>
       <c r="D25">
-        <v>0.05859705191076715</v>
+        <v>0.04898336221124461</v>
       </c>
       <c r="E25">
-        <v>0.004925665602102999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01474759203454938</v>
+      </c>
+      <c r="F25">
+        <v>-0.006231131101774189</v>
+      </c>
+      <c r="G25">
+        <v>0.01549399909860092</v>
+      </c>
+      <c r="H25">
+        <v>0.03629895966441147</v>
+      </c>
+      <c r="I25">
+        <v>0.03799821341867293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006532158250010487</v>
+        <v>0.0143535586374544</v>
       </c>
       <c r="C26">
-        <v>0.01407885474458105</v>
+        <v>-0.02705772233294303</v>
       </c>
       <c r="D26">
-        <v>0.08392256857592519</v>
+        <v>0.06777399021934639</v>
       </c>
       <c r="E26">
-        <v>0.02612007832327668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0448804686853437</v>
+      </c>
+      <c r="F26">
+        <v>0.04329420103604063</v>
+      </c>
+      <c r="G26">
+        <v>0.01119833241297165</v>
+      </c>
+      <c r="H26">
+        <v>0.09817413180050161</v>
+      </c>
+      <c r="I26">
+        <v>-0.02905323948223624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2623280154309054</v>
+        <v>0.3208342705649484</v>
       </c>
       <c r="C28">
-        <v>-0.1943223882641477</v>
+        <v>0.08781291048528804</v>
       </c>
       <c r="D28">
-        <v>0.01317215804841535</v>
+        <v>-0.01631255874600323</v>
       </c>
       <c r="E28">
-        <v>0.05747409847443681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05090848718106184</v>
+      </c>
+      <c r="F28">
+        <v>0.04611709684758246</v>
+      </c>
+      <c r="G28">
+        <v>-0.05148469570008446</v>
+      </c>
+      <c r="H28">
+        <v>-0.004209944144694899</v>
+      </c>
+      <c r="I28">
+        <v>-0.09719223810977008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002008761777184728</v>
+        <v>0.000976040016600484</v>
       </c>
       <c r="C29">
-        <v>0.01994568224534482</v>
+        <v>-0.03632845134584843</v>
       </c>
       <c r="D29">
-        <v>0.09434731247369814</v>
+        <v>0.1022691459039222</v>
       </c>
       <c r="E29">
-        <v>0.02614542464776378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05922270130341197</v>
+      </c>
+      <c r="F29">
+        <v>0.0399121933534345</v>
+      </c>
+      <c r="G29">
+        <v>0.01285351210521032</v>
+      </c>
+      <c r="H29">
+        <v>0.1380244431596024</v>
+      </c>
+      <c r="I29">
+        <v>0.01587658410355039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0232440972158272</v>
+        <v>0.0140448516517882</v>
       </c>
       <c r="C30">
-        <v>0.05859196054943508</v>
+        <v>-0.08759966149024574</v>
       </c>
       <c r="D30">
-        <v>0.1630683214962148</v>
+        <v>0.1447665498134327</v>
       </c>
       <c r="E30">
-        <v>0.03645598131017785</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05656174717235653</v>
+      </c>
+      <c r="F30">
+        <v>0.02780642358242795</v>
+      </c>
+      <c r="G30">
+        <v>-0.01788844832075336</v>
+      </c>
+      <c r="H30">
+        <v>0.05218353298967235</v>
+      </c>
+      <c r="I30">
+        <v>0.08277870886338107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03644960601309651</v>
+        <v>0.00756808242251633</v>
       </c>
       <c r="C31">
-        <v>0.08486267733442107</v>
+        <v>-0.09482367847704921</v>
       </c>
       <c r="D31">
-        <v>0.06782699247306044</v>
+        <v>0.0398181498197551</v>
       </c>
       <c r="E31">
-        <v>0.01887457073467969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01990966287987344</v>
+      </c>
+      <c r="F31">
+        <v>0.01425278448778658</v>
+      </c>
+      <c r="G31">
+        <v>0.00391434861004141</v>
+      </c>
+      <c r="H31">
+        <v>0.04809742320485792</v>
+      </c>
+      <c r="I31">
+        <v>-0.02882228638497556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01713009964928181</v>
+        <v>0.008659634751541795</v>
       </c>
       <c r="C32">
-        <v>0.03143698393423645</v>
+        <v>-0.04722634269569811</v>
       </c>
       <c r="D32">
-        <v>0.08600380374871118</v>
+        <v>0.1028219229284528</v>
       </c>
       <c r="E32">
-        <v>0.07202491424675053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001398819350048379</v>
+      </c>
+      <c r="F32">
+        <v>0.05540851387044626</v>
+      </c>
+      <c r="G32">
+        <v>-0.01155874870520617</v>
+      </c>
+      <c r="H32">
+        <v>0.05737993377892753</v>
+      </c>
+      <c r="I32">
+        <v>-0.09069295106812511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.009256266744225467</v>
+        <v>0.005640639866977731</v>
       </c>
       <c r="C33">
-        <v>0.04003751487073655</v>
+        <v>-0.06124698873506517</v>
       </c>
       <c r="D33">
-        <v>0.1346185876178576</v>
+        <v>0.1214011344414525</v>
       </c>
       <c r="E33">
-        <v>0.05016988937939948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02983241398824509</v>
+      </c>
+      <c r="F33">
+        <v>0.02663583853798961</v>
+      </c>
+      <c r="G33">
+        <v>0.008092241503102979</v>
+      </c>
+      <c r="H33">
+        <v>0.06509257009786107</v>
+      </c>
+      <c r="I33">
+        <v>0.008716093165825254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02084276001557384</v>
+        <v>0.006958132151421693</v>
       </c>
       <c r="C34">
-        <v>0.05880200829209228</v>
+        <v>-0.06204292119807611</v>
       </c>
       <c r="D34">
-        <v>0.05500844279595006</v>
+        <v>0.0275976958300189</v>
       </c>
       <c r="E34">
-        <v>-0.04367653666593305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02872333263436336</v>
+      </c>
+      <c r="F34">
+        <v>-0.03974976387264659</v>
+      </c>
+      <c r="G34">
+        <v>0.01667362398806714</v>
+      </c>
+      <c r="H34">
+        <v>0.05291831612697322</v>
+      </c>
+      <c r="I34">
+        <v>0.03066066671888114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002023595233210062</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01126587002143098</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.033606513873961</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004583854362425197</v>
+      </c>
+      <c r="F35">
+        <v>0.01785886229658744</v>
+      </c>
+      <c r="G35">
+        <v>0.007103838751633842</v>
+      </c>
+      <c r="H35">
+        <v>0.05346376673794418</v>
+      </c>
+      <c r="I35">
+        <v>0.025638648160124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006835382895926779</v>
+        <v>0.01097210572783609</v>
       </c>
       <c r="C36">
-        <v>0.005552951224296694</v>
+        <v>-0.02229937280149117</v>
       </c>
       <c r="D36">
-        <v>0.0824978032951022</v>
+        <v>0.07502186162589643</v>
       </c>
       <c r="E36">
-        <v>0.05063485176920206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02911368621647036</v>
+      </c>
+      <c r="F36">
+        <v>0.04969238010252361</v>
+      </c>
+      <c r="G36">
+        <v>0.003034611861364133</v>
+      </c>
+      <c r="H36">
+        <v>0.06617250381933942</v>
+      </c>
+      <c r="I36">
+        <v>-0.01588027369006502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005909212514750443</v>
+        <v>0.01117848026954759</v>
       </c>
       <c r="C38">
-        <v>0.005941930649014103</v>
+        <v>-0.02399868185648342</v>
       </c>
       <c r="D38">
-        <v>0.08705239755815564</v>
+        <v>0.0873098776037515</v>
       </c>
       <c r="E38">
-        <v>0.0135698893415499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006533418263203553</v>
+      </c>
+      <c r="F38">
+        <v>0.00160854764099536</v>
+      </c>
+      <c r="G38">
+        <v>-0.01956481379408663</v>
+      </c>
+      <c r="H38">
+        <v>0.06775647575167956</v>
+      </c>
+      <c r="I38">
+        <v>-0.002667643354625146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01537864220522969</v>
+        <v>0.003366076631856123</v>
       </c>
       <c r="C39">
-        <v>0.05725574116776587</v>
+        <v>-0.07724175591602937</v>
       </c>
       <c r="D39">
-        <v>0.1142283356304478</v>
+        <v>0.09189676940955788</v>
       </c>
       <c r="E39">
-        <v>-0.00472425941818666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05378330345649196</v>
+      </c>
+      <c r="F39">
+        <v>-0.005022973982139804</v>
+      </c>
+      <c r="G39">
+        <v>0.02315704747232918</v>
+      </c>
+      <c r="H39">
+        <v>0.1035364858015396</v>
+      </c>
+      <c r="I39">
+        <v>0.08231063810949538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01548191548919541</v>
+        <v>0.01274854279364995</v>
       </c>
       <c r="C40">
-        <v>0.02240858417969938</v>
+        <v>-0.03737628304087192</v>
       </c>
       <c r="D40">
-        <v>0.1118871357224241</v>
+        <v>0.09450012587051561</v>
       </c>
       <c r="E40">
-        <v>-0.002097688678359561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04147933673035299</v>
+      </c>
+      <c r="F40">
+        <v>-0.01150894944456727</v>
+      </c>
+      <c r="G40">
+        <v>-0.06444314848532347</v>
+      </c>
+      <c r="H40">
+        <v>0.105377170008291</v>
+      </c>
+      <c r="I40">
+        <v>-0.06216344884217932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009725430148206378</v>
+        <v>0.01537823630911285</v>
       </c>
       <c r="C41">
-        <v>0.003371268603963278</v>
+        <v>-0.01899871802885784</v>
       </c>
       <c r="D41">
-        <v>0.03751552509686194</v>
+        <v>0.04535841392360559</v>
       </c>
       <c r="E41">
-        <v>0.03138324847288897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005975306450562806</v>
+      </c>
+      <c r="F41">
+        <v>0.02419136745418388</v>
+      </c>
+      <c r="G41">
+        <v>-0.001353876753525496</v>
+      </c>
+      <c r="H41">
+        <v>0.04398628391052838</v>
+      </c>
+      <c r="I41">
+        <v>-0.007738386639549026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.001454622021258079</v>
+        <v>0.008027273089837438</v>
       </c>
       <c r="C43">
-        <v>0.003695939231718974</v>
+        <v>-0.01569184306079262</v>
       </c>
       <c r="D43">
-        <v>0.05005830606174107</v>
+        <v>0.05120815900947113</v>
       </c>
       <c r="E43">
-        <v>0.02335425873943915</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01076744280028447</v>
+      </c>
+      <c r="F43">
+        <v>0.02042074261391211</v>
+      </c>
+      <c r="G43">
+        <v>-0.003390016982455535</v>
+      </c>
+      <c r="H43">
+        <v>0.05406558684900346</v>
+      </c>
+      <c r="I43">
+        <v>0.015852076668836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01727631855419219</v>
+        <v>0.01216710100376627</v>
       </c>
       <c r="C44">
-        <v>0.02465614911709483</v>
+        <v>-0.04951662393746813</v>
       </c>
       <c r="D44">
-        <v>0.08936496462413746</v>
+        <v>0.1013930490430361</v>
       </c>
       <c r="E44">
-        <v>0.05059745090878116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03721607949587012</v>
+      </c>
+      <c r="F44">
+        <v>0.03596604325892006</v>
+      </c>
+      <c r="G44">
+        <v>-0.02846153886162749</v>
+      </c>
+      <c r="H44">
+        <v>0.05264366942001276</v>
+      </c>
+      <c r="I44">
+        <v>0.04870053454152185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005131563336027674</v>
+        <v>-0.0008898441175955343</v>
       </c>
       <c r="C46">
-        <v>0.02869993770530438</v>
+        <v>-0.04150018624455808</v>
       </c>
       <c r="D46">
-        <v>0.08200078041334836</v>
+        <v>0.07078372351995429</v>
       </c>
       <c r="E46">
-        <v>0.02120906591390294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04381909847504029</v>
+      </c>
+      <c r="F46">
+        <v>0.03246648309993316</v>
+      </c>
+      <c r="G46">
+        <v>-0.003803079649098454</v>
+      </c>
+      <c r="H46">
+        <v>0.1286970569180183</v>
+      </c>
+      <c r="I46">
+        <v>0.02229210158963241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07721731318991826</v>
+        <v>0.03047979520336662</v>
       </c>
       <c r="C47">
-        <v>0.1073436622582801</v>
+        <v>-0.12681543196499</v>
       </c>
       <c r="D47">
-        <v>0.05873192666588387</v>
+        <v>0.02546742086515264</v>
       </c>
       <c r="E47">
-        <v>0.03597492230169139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007531563857485367</v>
+      </c>
+      <c r="F47">
+        <v>-0.002728735557864861</v>
+      </c>
+      <c r="G47">
+        <v>0.04665540118329167</v>
+      </c>
+      <c r="H47">
+        <v>0.05781887435061508</v>
+      </c>
+      <c r="I47">
+        <v>-0.074820372328692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008554222986139375</v>
+        <v>0.01272730047358794</v>
       </c>
       <c r="C48">
-        <v>0.01479575998346767</v>
+        <v>-0.03247202573125097</v>
       </c>
       <c r="D48">
-        <v>0.08671876297308145</v>
+        <v>0.08053268069800286</v>
       </c>
       <c r="E48">
-        <v>0.06126873640724001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02345603341530589</v>
+      </c>
+      <c r="F48">
+        <v>0.05870353803415577</v>
+      </c>
+      <c r="G48">
+        <v>0.003450107970737014</v>
+      </c>
+      <c r="H48">
+        <v>0.107821421763958</v>
+      </c>
+      <c r="I48">
+        <v>0.003448773085216454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03390487490120988</v>
+        <v>0.01196089732799576</v>
       </c>
       <c r="C50">
-        <v>0.05814503962129696</v>
+        <v>-0.07606517261173186</v>
       </c>
       <c r="D50">
-        <v>0.06283375013505682</v>
+        <v>0.04929564683234658</v>
       </c>
       <c r="E50">
-        <v>0.01342547884978289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01330381426350748</v>
+      </c>
+      <c r="F50">
+        <v>0.00809631075101983</v>
+      </c>
+      <c r="G50">
+        <v>-0.005362692577118822</v>
+      </c>
+      <c r="H50">
+        <v>0.03677032044436778</v>
+      </c>
+      <c r="I50">
+        <v>-0.04492016373112731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002398165528699709</v>
+        <v>-0.001106251266178979</v>
       </c>
       <c r="C51">
-        <v>0.004999379365971215</v>
+        <v>-0.01738485092849015</v>
       </c>
       <c r="D51">
-        <v>0.05555082306158594</v>
+        <v>0.05624427644308878</v>
       </c>
       <c r="E51">
-        <v>0.009566111908236828</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03895451539973334</v>
+      </c>
+      <c r="F51">
+        <v>0.04117739667154773</v>
+      </c>
+      <c r="G51">
+        <v>-0.02134561840469755</v>
+      </c>
+      <c r="H51">
+        <v>0.05447797260484302</v>
+      </c>
+      <c r="I51">
+        <v>-0.01050927451072601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1063643997587362</v>
+        <v>0.05236198303571051</v>
       </c>
       <c r="C53">
-        <v>0.1267333900631973</v>
+        <v>-0.1576360813393707</v>
       </c>
       <c r="D53">
-        <v>0.003512800099907405</v>
+        <v>-0.02462377630536942</v>
       </c>
       <c r="E53">
-        <v>0.05916838126368335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03066181190383521</v>
+      </c>
+      <c r="F53">
+        <v>0.048575949127094</v>
+      </c>
+      <c r="G53">
+        <v>0.001299244749146814</v>
+      </c>
+      <c r="H53">
+        <v>0.009469827727939461</v>
+      </c>
+      <c r="I53">
+        <v>-0.03383366915868956</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.009735100406487496</v>
+        <v>0.009956989992559069</v>
       </c>
       <c r="C54">
-        <v>0.01973804256965281</v>
+        <v>-0.03754898642077114</v>
       </c>
       <c r="D54">
-        <v>0.08859884302446039</v>
+        <v>0.07572235040520739</v>
       </c>
       <c r="E54">
-        <v>0.01014828643529431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01888319716056264</v>
+      </c>
+      <c r="F54">
+        <v>0.001122923335458943</v>
+      </c>
+      <c r="G54">
+        <v>-0.009978458808976824</v>
+      </c>
+      <c r="H54">
+        <v>0.07879118334446822</v>
+      </c>
+      <c r="I54">
+        <v>0.02302443998218055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09323001631437516</v>
+        <v>0.03997511552130122</v>
       </c>
       <c r="C55">
-        <v>0.1074914519857413</v>
+        <v>-0.1316764723222226</v>
       </c>
       <c r="D55">
-        <v>0.006565732605638348</v>
+        <v>-0.0322509602751196</v>
       </c>
       <c r="E55">
-        <v>0.008916923877002922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004897637616036864</v>
+      </c>
+      <c r="F55">
+        <v>0.01203964690828451</v>
+      </c>
+      <c r="G55">
+        <v>-0.002654838558484002</v>
+      </c>
+      <c r="H55">
+        <v>0.01628759361032734</v>
+      </c>
+      <c r="I55">
+        <v>-0.0485010859086062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1315423618208467</v>
+        <v>0.05458532165655067</v>
       </c>
       <c r="C56">
-        <v>0.1459782935281887</v>
+        <v>-0.1905810911318944</v>
       </c>
       <c r="D56">
-        <v>0.002530937332053122</v>
+        <v>-0.03200985309989115</v>
       </c>
       <c r="E56">
-        <v>0.00858406077864147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03128565230957468</v>
+      </c>
+      <c r="F56">
+        <v>0.01449507094260798</v>
+      </c>
+      <c r="G56">
+        <v>-0.05021179597932864</v>
+      </c>
+      <c r="H56">
+        <v>0.01292128220517945</v>
+      </c>
+      <c r="I56">
+        <v>-0.06407878001396973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.006672527571109963</v>
+        <v>0.006712521455025834</v>
       </c>
       <c r="C58">
-        <v>0.008411867607370694</v>
+        <v>-0.05554071645884257</v>
       </c>
       <c r="D58">
-        <v>0.2113969611360143</v>
+        <v>0.2818945968923419</v>
       </c>
       <c r="E58">
-        <v>0.0966072455411737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02004262394266547</v>
+      </c>
+      <c r="F58">
+        <v>0.1080273353682119</v>
+      </c>
+      <c r="G58">
+        <v>-0.1530755474149532</v>
+      </c>
+      <c r="H58">
+        <v>-0.1027027131056033</v>
+      </c>
+      <c r="I58">
+        <v>0.05505400347087206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1840785625569056</v>
+        <v>0.2541649103358204</v>
       </c>
       <c r="C59">
-        <v>-0.144765238692813</v>
+        <v>0.0586057682598666</v>
       </c>
       <c r="D59">
-        <v>0.04280851948491531</v>
+        <v>0.05641853183958381</v>
       </c>
       <c r="E59">
-        <v>0.03799532099562679</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01917330294077041</v>
+      </c>
+      <c r="F59">
+        <v>0.02320284958807129</v>
+      </c>
+      <c r="G59">
+        <v>-0.007222664552345172</v>
+      </c>
+      <c r="H59">
+        <v>0.003452441850072219</v>
+      </c>
+      <c r="I59">
+        <v>-0.06501614038367966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1818640123110558</v>
+        <v>0.1475128619607604</v>
       </c>
       <c r="C60">
-        <v>0.1062863124369057</v>
+        <v>-0.1761015213773984</v>
       </c>
       <c r="D60">
-        <v>0.223506463026046</v>
+        <v>0.08883302348582332</v>
       </c>
       <c r="E60">
-        <v>-0.1351321235461034</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.164801860946688</v>
+      </c>
+      <c r="F60">
+        <v>-0.2229396532987586</v>
+      </c>
+      <c r="G60">
+        <v>0.2211663841245328</v>
+      </c>
+      <c r="H60">
+        <v>-0.2344246365501161</v>
+      </c>
+      <c r="I60">
+        <v>-0.07559412445995778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02570241025378257</v>
+        <v>0.01131621064488141</v>
       </c>
       <c r="C61">
-        <v>0.05259725673172317</v>
+        <v>-0.07452163666480471</v>
       </c>
       <c r="D61">
-        <v>0.09406060332633466</v>
+        <v>0.07358475127178973</v>
       </c>
       <c r="E61">
-        <v>-0.0002221261306006972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03835293585563761</v>
+      </c>
+      <c r="F61">
+        <v>-0.01405048057835949</v>
+      </c>
+      <c r="G61">
+        <v>0.03615393257207987</v>
+      </c>
+      <c r="H61">
+        <v>0.08700731425846543</v>
+      </c>
+      <c r="I61">
+        <v>0.03751720608056063</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006453217348063644</v>
+        <v>0.007903785016851888</v>
       </c>
       <c r="C63">
-        <v>0.02369803523498793</v>
+        <v>-0.0367766910920625</v>
       </c>
       <c r="D63">
-        <v>0.09705454250538835</v>
+        <v>0.06823092024862354</v>
       </c>
       <c r="E63">
-        <v>0.02388283659925559</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05970913226037564</v>
+      </c>
+      <c r="F63">
+        <v>0.02602684212553154</v>
+      </c>
+      <c r="G63">
+        <v>0.004907505961374789</v>
+      </c>
+      <c r="H63">
+        <v>0.07007138440371555</v>
+      </c>
+      <c r="I63">
+        <v>0.03092263157558802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0542377877039404</v>
+        <v>0.01551771144934995</v>
       </c>
       <c r="C64">
-        <v>0.08411661530247422</v>
+        <v>-0.10495233333465</v>
       </c>
       <c r="D64">
-        <v>0.02680042218333686</v>
+        <v>0.01264514841798902</v>
       </c>
       <c r="E64">
-        <v>0.0133606296206925</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02640416488844912</v>
+      </c>
+      <c r="F64">
+        <v>0.01571729522195692</v>
+      </c>
+      <c r="G64">
+        <v>0.05130630677829509</v>
+      </c>
+      <c r="H64">
+        <v>0.07703751488645612</v>
+      </c>
+      <c r="I64">
+        <v>0.07872335683974854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02475532548485309</v>
+        <v>0.02148829488057475</v>
       </c>
       <c r="C65">
-        <v>0.01434102490577832</v>
+        <v>-0.04413340381115093</v>
       </c>
       <c r="D65">
-        <v>0.1127482324258814</v>
+        <v>0.1145459654070448</v>
       </c>
       <c r="E65">
-        <v>0.01566185387476246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04569318813862584</v>
+      </c>
+      <c r="F65">
+        <v>-0.006661063409932043</v>
+      </c>
+      <c r="G65">
+        <v>0.03187193724959705</v>
+      </c>
+      <c r="H65">
+        <v>0.01416647919889361</v>
+      </c>
+      <c r="I65">
+        <v>0.05166440038144239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02022599884815413</v>
+        <v>0.0007057294110554313</v>
       </c>
       <c r="C66">
-        <v>0.06595389412444068</v>
+        <v>-0.09608223215960875</v>
       </c>
       <c r="D66">
-        <v>0.122393678417192</v>
+        <v>0.1179885037669745</v>
       </c>
       <c r="E66">
-        <v>-0.007871265847394539</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04250473285509596</v>
+      </c>
+      <c r="F66">
+        <v>-0.01083930934854213</v>
+      </c>
+      <c r="G66">
+        <v>-0.003811809545840928</v>
+      </c>
+      <c r="H66">
+        <v>0.0690734947638979</v>
+      </c>
+      <c r="I66">
+        <v>0.0704364287339355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02368560759761948</v>
+        <v>0.02098532763056071</v>
       </c>
       <c r="C67">
-        <v>0.01993520831759535</v>
+        <v>-0.03575324668685678</v>
       </c>
       <c r="D67">
-        <v>0.04682490126164878</v>
+        <v>0.04223199436293072</v>
       </c>
       <c r="E67">
-        <v>-0.01591248341579021</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01216713692280807</v>
+      </c>
+      <c r="F67">
+        <v>-0.02714372014910208</v>
+      </c>
+      <c r="G67">
+        <v>-0.003818620045633121</v>
+      </c>
+      <c r="H67">
+        <v>0.0688748212016778</v>
+      </c>
+      <c r="I67">
+        <v>0.003051313566267903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2064297926502945</v>
+        <v>0.2746735734456074</v>
       </c>
       <c r="C68">
-        <v>-0.153443574831048</v>
+        <v>0.06559615184164466</v>
       </c>
       <c r="D68">
-        <v>0.02969771923837766</v>
+        <v>0.02684187834230252</v>
       </c>
       <c r="E68">
-        <v>0.01054931718287591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0033607001719074</v>
+      </c>
+      <c r="F68">
+        <v>0.0257630048372219</v>
+      </c>
+      <c r="G68">
+        <v>-0.07147233876792947</v>
+      </c>
+      <c r="H68">
+        <v>-0.04953210180703891</v>
+      </c>
+      <c r="I68">
+        <v>-0.08687875142585016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05317222147391928</v>
+        <v>0.01611788674514722</v>
       </c>
       <c r="C69">
-        <v>0.1168042830982225</v>
+        <v>-0.1186776050998896</v>
       </c>
       <c r="D69">
-        <v>0.07690667974617173</v>
+        <v>0.02729377521619278</v>
       </c>
       <c r="E69">
-        <v>0.02055833612901432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007980028922337382</v>
+      </c>
+      <c r="F69">
+        <v>-0.007996287314952742</v>
+      </c>
+      <c r="G69">
+        <v>0.0266656562274873</v>
+      </c>
+      <c r="H69">
+        <v>0.04500803789068596</v>
+      </c>
+      <c r="I69">
+        <v>-0.0481619302608478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2174785336444571</v>
+        <v>0.2764581406533437</v>
       </c>
       <c r="C71">
-        <v>-0.1758042565435936</v>
+        <v>0.07747035226256954</v>
       </c>
       <c r="D71">
-        <v>0.01474132892029518</v>
+        <v>0.01453966764530045</v>
       </c>
       <c r="E71">
-        <v>0.0119262235427992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001096716776200159</v>
+      </c>
+      <c r="F71">
+        <v>0.0206050559342814</v>
+      </c>
+      <c r="G71">
+        <v>-0.03987861006816415</v>
+      </c>
+      <c r="H71">
+        <v>0.01915907726513443</v>
+      </c>
+      <c r="I71">
+        <v>-0.1016852615996662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1000340023278262</v>
+        <v>0.05306867414618485</v>
       </c>
       <c r="C72">
-        <v>0.07971786550756688</v>
+        <v>-0.1272322180510135</v>
       </c>
       <c r="D72">
-        <v>0.1125414903418108</v>
+        <v>0.05852097023394711</v>
       </c>
       <c r="E72">
-        <v>-0.03121242998332757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06866633719930841</v>
+      </c>
+      <c r="F72">
+        <v>-0.02506100800113828</v>
+      </c>
+      <c r="G72">
+        <v>0.03722416064919874</v>
+      </c>
+      <c r="H72">
+        <v>0.04930773615912699</v>
+      </c>
+      <c r="I72">
+        <v>0.0665740475817657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1697674172264324</v>
+        <v>0.1383233259525009</v>
       </c>
       <c r="C73">
-        <v>0.07166045814071906</v>
+        <v>-0.1512348983310888</v>
       </c>
       <c r="D73">
-        <v>0.2974170573908343</v>
+        <v>0.09760945444439538</v>
       </c>
       <c r="E73">
-        <v>-0.2022145914182021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2851603882723623</v>
+      </c>
+      <c r="F73">
+        <v>-0.3105302636530999</v>
+      </c>
+      <c r="G73">
+        <v>0.3939185859816358</v>
+      </c>
+      <c r="H73">
+        <v>-0.1759193672091715</v>
+      </c>
+      <c r="I73">
+        <v>0.001147182557668203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1052685077180253</v>
+        <v>0.04754664784988788</v>
       </c>
       <c r="C74">
-        <v>0.1177660670150489</v>
+        <v>-0.1457183105092933</v>
       </c>
       <c r="D74">
-        <v>-0.01988990097646965</v>
+        <v>-0.04397994388303889</v>
       </c>
       <c r="E74">
-        <v>0.03732546661334268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01163727367505353</v>
+      </c>
+      <c r="F74">
+        <v>0.03469744127158402</v>
+      </c>
+      <c r="G74">
+        <v>0.006865191342539431</v>
+      </c>
+      <c r="H74">
+        <v>-0.01197822917296996</v>
+      </c>
+      <c r="I74">
+        <v>-0.0782744859885536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2280468258327946</v>
+        <v>0.1021937457396628</v>
       </c>
       <c r="C75">
-        <v>0.2046253066275149</v>
+        <v>-0.2688881809827167</v>
       </c>
       <c r="D75">
-        <v>-0.1044438684200886</v>
+        <v>-0.1359697149824565</v>
       </c>
       <c r="E75">
-        <v>-0.03970822597918765</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09116634244578381</v>
+      </c>
+      <c r="F75">
+        <v>-0.02717227741887112</v>
+      </c>
+      <c r="G75">
+        <v>-0.1001201798942018</v>
+      </c>
+      <c r="H75">
+        <v>0.02378098538444789</v>
+      </c>
+      <c r="I75">
+        <v>-0.06253735444327738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1377702275191286</v>
+        <v>0.05952522363000774</v>
       </c>
       <c r="C76">
-        <v>0.1410602997342125</v>
+        <v>-0.1827709171814235</v>
       </c>
       <c r="D76">
-        <v>0.007950118104561119</v>
+        <v>-0.04356927352441786</v>
       </c>
       <c r="E76">
-        <v>0.008025588422914976</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02368634936483785</v>
+      </c>
+      <c r="F76">
+        <v>0.002543555120898752</v>
+      </c>
+      <c r="G76">
+        <v>-0.03411219058467124</v>
+      </c>
+      <c r="H76">
+        <v>0.03716323617763379</v>
+      </c>
+      <c r="I76">
+        <v>-0.05252107795302892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02090546093775383</v>
+        <v>0.0006160215512622368</v>
       </c>
       <c r="C77">
-        <v>0.0656661670269362</v>
+        <v>-0.1064683627169703</v>
       </c>
       <c r="D77">
-        <v>-0.04253570924775062</v>
+        <v>0.3256894479288225</v>
       </c>
       <c r="E77">
-        <v>0.2006382820300892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8398665752129829</v>
+      </c>
+      <c r="F77">
+        <v>-0.219099569817447</v>
+      </c>
+      <c r="G77">
+        <v>0.1985140318009081</v>
+      </c>
+      <c r="H77">
+        <v>-0.1526275010541048</v>
+      </c>
+      <c r="I77">
+        <v>-0.01449783660499121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02647557412435983</v>
+        <v>0.01662003607433841</v>
       </c>
       <c r="C78">
-        <v>0.07027634530178895</v>
+        <v>-0.09246342901105209</v>
       </c>
       <c r="D78">
-        <v>0.1429892613878038</v>
+        <v>0.1103848693888461</v>
       </c>
       <c r="E78">
-        <v>0.0515302954771719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06739974386769729</v>
+      </c>
+      <c r="F78">
+        <v>0.04387091371156517</v>
+      </c>
+      <c r="G78">
+        <v>-0.03605647950970228</v>
+      </c>
+      <c r="H78">
+        <v>0.03721837408547078</v>
+      </c>
+      <c r="I78">
+        <v>-0.1089042087100431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09436992706679148</v>
+        <v>0.03388903449088108</v>
       </c>
       <c r="C79">
-        <v>0.1786847621403966</v>
+        <v>-0.1948716610854282</v>
       </c>
       <c r="D79">
-        <v>-0.1585820395267072</v>
+        <v>-0.07868903905583285</v>
       </c>
       <c r="E79">
-        <v>0.8106977679316282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05418207795325061</v>
+      </c>
+      <c r="F79">
+        <v>0.7786871093935462</v>
+      </c>
+      <c r="G79">
+        <v>0.3758996288187708</v>
+      </c>
+      <c r="H79">
+        <v>-0.3266092417195547</v>
+      </c>
+      <c r="I79">
+        <v>0.1020568963793319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003187802090197714</v>
+        <v>0.00374861682906991</v>
       </c>
       <c r="C80">
-        <v>0.04464604801721089</v>
+        <v>-0.0458111502529577</v>
       </c>
       <c r="D80">
-        <v>0.05411728999623767</v>
+        <v>0.04135691615511421</v>
       </c>
       <c r="E80">
-        <v>-0.001547542933693751</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04460162688639259</v>
+      </c>
+      <c r="F80">
+        <v>0.005288763097376584</v>
+      </c>
+      <c r="G80">
+        <v>-0.008429794128009784</v>
+      </c>
+      <c r="H80">
+        <v>0.03140096239185156</v>
+      </c>
+      <c r="I80">
+        <v>-0.07349943241725172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1181398898003813</v>
+        <v>0.04170927879635785</v>
       </c>
       <c r="C81">
-        <v>0.1371021848512752</v>
+        <v>-0.1673143384330461</v>
       </c>
       <c r="D81">
-        <v>-0.07518831401560075</v>
+        <v>-0.08069046293883378</v>
       </c>
       <c r="E81">
-        <v>0.04843532283056588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05037690359320518</v>
+      </c>
+      <c r="F81">
+        <v>0.06451347885048078</v>
+      </c>
+      <c r="G81">
+        <v>-0.04880397310038501</v>
+      </c>
+      <c r="H81">
+        <v>0.07701691228773573</v>
+      </c>
+      <c r="I81">
+        <v>-0.08452257667366996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2456903380120245</v>
+        <v>0.08646018645569892</v>
       </c>
       <c r="C82">
-        <v>0.3017763243931048</v>
+        <v>-0.3205374511581738</v>
       </c>
       <c r="D82">
-        <v>-0.2015030911001755</v>
+        <v>-0.2452197825971265</v>
       </c>
       <c r="E82">
-        <v>-0.1663805486816355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06449936449087228</v>
+      </c>
+      <c r="F82">
+        <v>-0.1093035536440613</v>
+      </c>
+      <c r="G82">
+        <v>-0.09786098844151912</v>
+      </c>
+      <c r="H82">
+        <v>0.1102749859331735</v>
+      </c>
+      <c r="I82">
+        <v>-0.04152776601943786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.008415037669110245</v>
+        <v>-0.01362381087066684</v>
       </c>
       <c r="C83">
-        <v>0.05074889909028465</v>
+        <v>-0.02603341024109155</v>
       </c>
       <c r="D83">
-        <v>-0.0011783237362232</v>
+        <v>0.03188291705878871</v>
       </c>
       <c r="E83">
-        <v>0.05763053265425736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07781848249615</v>
+      </c>
+      <c r="F83">
+        <v>0.0731818829335683</v>
+      </c>
+      <c r="G83">
+        <v>-0.03411169777653313</v>
+      </c>
+      <c r="H83">
+        <v>0.1060512828260364</v>
+      </c>
+      <c r="I83">
+        <v>-0.6690181181057746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0014338271477977</v>
+        <v>-0.001086401271998659</v>
       </c>
       <c r="C84">
-        <v>-0.0001585496857237439</v>
+        <v>-0.01705109333084826</v>
       </c>
       <c r="D84">
-        <v>0.009603191045177343</v>
+        <v>0.04129497408869293</v>
       </c>
       <c r="E84">
-        <v>-0.001412904689607014</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0009054650374187019</v>
+      </c>
+      <c r="F84">
+        <v>0.03306128645757499</v>
+      </c>
+      <c r="G84">
+        <v>-0.04694881425282856</v>
+      </c>
+      <c r="H84">
+        <v>0.03199053409076394</v>
+      </c>
+      <c r="I84">
+        <v>0.06367111219558931</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1390919537010681</v>
+        <v>0.05463710070897399</v>
       </c>
       <c r="C85">
-        <v>0.1409892529520278</v>
+        <v>-0.1819307204324231</v>
       </c>
       <c r="D85">
-        <v>-0.04326050291902667</v>
+        <v>-0.09637943325615317</v>
       </c>
       <c r="E85">
-        <v>0.02313016741073617</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001492562220448294</v>
+      </c>
+      <c r="F85">
+        <v>0.07356367787226611</v>
+      </c>
+      <c r="G85">
+        <v>-0.02341477472912887</v>
+      </c>
+      <c r="H85">
+        <v>-0.003261008602605156</v>
+      </c>
+      <c r="I85">
+        <v>-0.06139686952248885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01605702370531336</v>
+        <v>0.01262281824461981</v>
       </c>
       <c r="C86">
-        <v>0.01407752353086052</v>
+        <v>-0.03562645012273773</v>
       </c>
       <c r="D86">
-        <v>0.08214065065818188</v>
+        <v>0.1058273230848939</v>
       </c>
       <c r="E86">
-        <v>0.05624695299896827</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02099627828860439</v>
+      </c>
+      <c r="F86">
+        <v>-0.002364716270543402</v>
+      </c>
+      <c r="G86">
+        <v>0.01899384897140254</v>
+      </c>
+      <c r="H86">
+        <v>0.02290531521246389</v>
+      </c>
+      <c r="I86">
+        <v>-0.06691273068813965</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02066773679865998</v>
+        <v>0.01250636721387599</v>
       </c>
       <c r="C87">
-        <v>0.02651298039692686</v>
+        <v>-0.06030349386551862</v>
       </c>
       <c r="D87">
-        <v>0.1279931154851519</v>
+        <v>0.1403543388064935</v>
       </c>
       <c r="E87">
-        <v>0.05948064667515517</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01492359380008693</v>
+      </c>
+      <c r="F87">
+        <v>0.04156248484928336</v>
+      </c>
+      <c r="G87">
+        <v>-0.04790013261354282</v>
+      </c>
+      <c r="H87">
+        <v>0.05561470840437992</v>
+      </c>
+      <c r="I87">
+        <v>-0.00503676038767597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05165549666948126</v>
+        <v>0.03244453018666176</v>
       </c>
       <c r="C88">
-        <v>0.04454350007261915</v>
+        <v>-0.06816858309862256</v>
       </c>
       <c r="D88">
-        <v>0.02624398099962863</v>
+        <v>0.01519437857692535</v>
       </c>
       <c r="E88">
-        <v>0.03256948975007466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02841012184594012</v>
+      </c>
+      <c r="F88">
+        <v>0.02014025565204222</v>
+      </c>
+      <c r="G88">
+        <v>0.01362593633080091</v>
+      </c>
+      <c r="H88">
+        <v>0.01256748884672692</v>
+      </c>
+      <c r="I88">
+        <v>-0.003969122537354652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3273108401937659</v>
+        <v>0.408493738418552</v>
       </c>
       <c r="C89">
-        <v>-0.319839010421572</v>
+        <v>0.147938466563777</v>
       </c>
       <c r="D89">
-        <v>0.00349715854262256</v>
+        <v>0.03054495003958305</v>
       </c>
       <c r="E89">
-        <v>0.09773650743233096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05236592183250349</v>
+      </c>
+      <c r="F89">
+        <v>0.06681835230367798</v>
+      </c>
+      <c r="G89">
+        <v>-0.01310696238889892</v>
+      </c>
+      <c r="H89">
+        <v>0.1241060456423618</v>
+      </c>
+      <c r="I89">
+        <v>0.1595423808245085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2599948170956031</v>
+        <v>0.3225050905878529</v>
       </c>
       <c r="C90">
-        <v>-0.235259510877732</v>
+        <v>0.102683384368069</v>
       </c>
       <c r="D90">
-        <v>0.03749316281889516</v>
+        <v>0.03396209322093185</v>
       </c>
       <c r="E90">
-        <v>-0.01124332087146412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0114499209950807</v>
+      </c>
+      <c r="F90">
+        <v>-0.007336282446048971</v>
+      </c>
+      <c r="G90">
+        <v>-0.06648946255207001</v>
+      </c>
+      <c r="H90">
+        <v>-0.01146320395367899</v>
+      </c>
+      <c r="I90">
+        <v>-0.08007414381406835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1510934519801567</v>
+        <v>0.06430362724501312</v>
       </c>
       <c r="C91">
-        <v>0.1896736281546654</v>
+        <v>-0.2086470795592507</v>
       </c>
       <c r="D91">
-        <v>-0.09954602275838177</v>
+        <v>-0.1099518035511881</v>
       </c>
       <c r="E91">
-        <v>0.07727377037692661</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05778912357206056</v>
+      </c>
+      <c r="F91">
+        <v>0.06899125493692271</v>
+      </c>
+      <c r="G91">
+        <v>-0.004380536510838649</v>
+      </c>
+      <c r="H91">
+        <v>-0.002683487410387003</v>
+      </c>
+      <c r="I91">
+        <v>-0.08599937205257685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2459014024396445</v>
+        <v>0.3403740666139455</v>
       </c>
       <c r="C92">
-        <v>-0.2572657263429979</v>
+        <v>0.1380552480933721</v>
       </c>
       <c r="D92">
-        <v>-0.06164140766116903</v>
+        <v>0.004128562459288031</v>
       </c>
       <c r="E92">
-        <v>0.03780344512157064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06281971713052015</v>
+      </c>
+      <c r="F92">
+        <v>0.03077666123026592</v>
+      </c>
+      <c r="G92">
+        <v>-0.03013056186416709</v>
+      </c>
+      <c r="H92">
+        <v>0.01395102714610654</v>
+      </c>
+      <c r="I92">
+        <v>0.2402649076921376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2858124205663116</v>
+        <v>0.3359397813548411</v>
       </c>
       <c r="C93">
-        <v>-0.245395653336799</v>
+        <v>0.1096061429994292</v>
       </c>
       <c r="D93">
-        <v>0.01267339258730666</v>
+        <v>-0.01816738431219871</v>
       </c>
       <c r="E93">
-        <v>0.001354340487530306</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02534177074183096</v>
+      </c>
+      <c r="F93">
+        <v>0.007560892316779996</v>
+      </c>
+      <c r="G93">
+        <v>0.01312506364460459</v>
+      </c>
+      <c r="H93">
+        <v>-0.006380752936347777</v>
+      </c>
+      <c r="I93">
+        <v>-0.03020070671901806</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2848304753003452</v>
+        <v>0.1213200587985152</v>
       </c>
       <c r="C94">
-        <v>0.2801484688943524</v>
+        <v>-0.348127834187474</v>
       </c>
       <c r="D94">
-        <v>-0.3195252096360123</v>
+        <v>-0.3562376585866863</v>
       </c>
       <c r="E94">
-        <v>-0.2390996611177626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06258574537761048</v>
+      </c>
+      <c r="F94">
+        <v>-0.1075450623396116</v>
+      </c>
+      <c r="G94">
+        <v>-0.3229151361705037</v>
+      </c>
+      <c r="H94">
+        <v>-0.0358919541740109</v>
+      </c>
+      <c r="I94">
+        <v>0.2632646975091502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01251365685663278</v>
+        <v>0.01780209300364104</v>
       </c>
       <c r="C95">
-        <v>0.03795727389745964</v>
+        <v>-0.06391420389367132</v>
       </c>
       <c r="D95">
-        <v>-0.01339192652015508</v>
+        <v>0.09779129831878181</v>
       </c>
       <c r="E95">
-        <v>0.07731397647477116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1602222401176496</v>
+      </c>
+      <c r="F95">
+        <v>-0.01599242592552172</v>
+      </c>
+      <c r="G95">
+        <v>0.09015562917199603</v>
+      </c>
+      <c r="H95">
+        <v>0.3359602035288409</v>
+      </c>
+      <c r="I95">
+        <v>0.3714408510161169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001027763757763081</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007959197899102621</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0007009999518463252</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003643142484296266</v>
+      </c>
+      <c r="F97">
+        <v>0.0005198747427224312</v>
+      </c>
+      <c r="G97">
+        <v>-0.001243693673429771</v>
+      </c>
+      <c r="H97">
+        <v>0.004074490937987519</v>
+      </c>
+      <c r="I97">
+        <v>0.002420180412304277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1435241411001319</v>
+        <v>0.1143695664747673</v>
       </c>
       <c r="C98">
-        <v>0.0919564090013692</v>
+        <v>-0.1558172296461615</v>
       </c>
       <c r="D98">
-        <v>0.1721813157680326</v>
+        <v>0.06188962887259659</v>
       </c>
       <c r="E98">
-        <v>-0.1750469670747395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1998710009876668</v>
+      </c>
+      <c r="F98">
+        <v>-0.2481144870409886</v>
+      </c>
+      <c r="G98">
+        <v>0.2777483679453943</v>
+      </c>
+      <c r="H98">
+        <v>-0.1903302603002438</v>
+      </c>
+      <c r="I98">
+        <v>-0.01217622022188002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001277013390353162</v>
+        <v>0.001457587197891979</v>
       </c>
       <c r="C101">
-        <v>0.01922226119015935</v>
+        <v>-0.03560128422657711</v>
       </c>
       <c r="D101">
-        <v>0.0939425776793703</v>
+        <v>0.1014781205967737</v>
       </c>
       <c r="E101">
-        <v>0.02721378941478388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05852877750094527</v>
+      </c>
+      <c r="F101">
+        <v>0.04014382262371415</v>
+      </c>
+      <c r="G101">
+        <v>0.01201932240330028</v>
+      </c>
+      <c r="H101">
+        <v>0.1384667078481889</v>
+      </c>
+      <c r="I101">
+        <v>0.01586450942903981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1025390894808738</v>
+        <v>0.02675490278671652</v>
       </c>
       <c r="C102">
-        <v>0.161031949805951</v>
+        <v>-0.1484777820328008</v>
       </c>
       <c r="D102">
-        <v>-0.06104227015792754</v>
+        <v>-0.09876363532752322</v>
       </c>
       <c r="E102">
-        <v>-0.05878895033285474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03858647618017451</v>
+      </c>
+      <c r="F102">
+        <v>-0.06401251590528359</v>
+      </c>
+      <c r="G102">
+        <v>0.005602989646937497</v>
+      </c>
+      <c r="H102">
+        <v>0.0471968367012859</v>
+      </c>
+      <c r="I102">
+        <v>-0.02577563554637745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
